--- a/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/RegisterExc.xlsx
+++ b/src/main/resources/TestData/com/nonobank/apps/testcase/nonobankge/registerLogin/RegisterExc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="420" yWindow="4260" windowWidth="25600" windowHeight="14120"/>
+    <workbookView xWindow="0" yWindow="820" windowWidth="25600" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -70,18 +70,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>${UserInfoUtils.getUnregisterMobile()}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sms_code</t>
   </si>
   <si>
     <t>environment</t>
-  </si>
-  <si>
-    <t>sit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>8888</t>
@@ -147,6 +139,14 @@
   </si>
   <si>
     <t>0928383</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${MobileUtil.getUnRegisterMobile()}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${EnvUtils.getEnv()}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -500,7 +500,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -522,34 +522,34 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" t="s">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
         <v>25</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>27</v>
       </c>
       <c r="L1" t="s">
         <v>8</v>
@@ -566,34 +566,34 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>9</v>
